--- a/TC2/Resultados tabela.xlsx
+++ b/TC2/Resultados tabela.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\RecPad\TC2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10E35737-1DAE-43AB-882B-411E5DBF0E12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{325B875B-883B-4A0E-B253-F049D491795C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="33">
   <si>
     <t>Média</t>
   </si>
@@ -45,9 +39,6 @@
     <t>[mínimo,máximo]</t>
   </si>
   <si>
-    <t>Tempo de processamento</t>
-  </si>
-  <si>
     <t>Size</t>
   </si>
   <si>
@@ -57,56 +48,92 @@
     <t>40x40</t>
   </si>
   <si>
-    <t>98.40,100</t>
-  </si>
-  <si>
     <t>30x30</t>
   </si>
   <si>
-    <t>160.2799 seg</t>
-  </si>
-  <si>
     <t>20x20</t>
   </si>
   <si>
-    <t>0.4838</t>
-  </si>
-  <si>
     <t>10x10</t>
   </si>
   <si>
-    <t>98.1201 seg</t>
-  </si>
-  <si>
-    <t>548.6059 seg</t>
-  </si>
-  <si>
-    <t>0.3687</t>
-  </si>
-  <si>
-    <t>376.8689 seg</t>
-  </si>
-  <si>
-    <t>98.93,100</t>
-  </si>
-  <si>
-    <t>0.3094</t>
-  </si>
-  <si>
-    <t>258.9669 seg</t>
-  </si>
-  <si>
-    <t>98.13,100</t>
-  </si>
-  <si>
-    <t>0.4364</t>
+    <t>NN</t>
+  </si>
+  <si>
+    <t>MDC</t>
+  </si>
+  <si>
+    <t>CQ</t>
+  </si>
+  <si>
+    <t>LMQ</t>
+  </si>
+  <si>
+    <t>Tpro</t>
+  </si>
+  <si>
+    <t>Ttrain</t>
+  </si>
+  <si>
+    <t>84,8404/93,3511</t>
+  </si>
+  <si>
+    <t>90,9574/95,4787</t>
+  </si>
+  <si>
+    <t>80,8511/90,6915</t>
+  </si>
+  <si>
+    <t>81,9149/88,5638</t>
+  </si>
+  <si>
+    <t>97,0745/100</t>
+  </si>
+  <si>
+    <t>92,2872/97,3404</t>
+  </si>
+  <si>
+    <t>96,5426/99,7340</t>
+  </si>
+  <si>
+    <t>97,0745/99,7340</t>
+  </si>
+  <si>
+    <t>98,4043/100</t>
+  </si>
+  <si>
+    <t>93,8830/98,6702</t>
+  </si>
+  <si>
+    <t>97,8723/100</t>
+  </si>
+  <si>
+    <t>97,3404/99,7340</t>
+  </si>
+  <si>
+    <t>94,6809/98,6702</t>
+  </si>
+  <si>
+    <t>81,6489/90,4255</t>
+  </si>
+  <si>
+    <t>98,1383/100</t>
+  </si>
+  <si>
+    <t>97,0745/98,9362</t>
+  </si>
+  <si>
+    <t>Ttotal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,13 +147,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -138,19 +204,71 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="20% - Ênfase1" xfId="1" builtinId="30"/>
+    <cellStyle name="20% - Ênfase2" xfId="2" builtinId="34"/>
+    <cellStyle name="20% - Ênfase3" xfId="3" builtinId="38"/>
+    <cellStyle name="20% - Ênfase4" xfId="4" builtinId="42"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -209,7 +327,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -261,7 +379,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -455,152 +573,646 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A22750D-F662-46F4-9F01-60BE5A2A6A84}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="2">
+        <v>99.625</v>
+      </c>
+      <c r="C2" s="9">
+        <v>99.733999999999995</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0.32979999999999998</v>
+      </c>
+      <c r="F2" s="9">
+        <v>31.8002</v>
+      </c>
+      <c r="G2" s="9">
+        <v>320.51519999999999</v>
+      </c>
+      <c r="H2" s="21">
+        <f>SUM(F2,G2)</f>
+        <v>352.31540000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="9">
+        <v>99.428200000000004</v>
+      </c>
+      <c r="C3" s="9">
+        <v>99.468100000000007</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.39169999999999999</v>
+      </c>
+      <c r="F3" s="9">
+        <v>24.427800000000001</v>
+      </c>
+      <c r="G3" s="9">
+        <v>213.00749999999999</v>
+      </c>
+      <c r="H3" s="21">
+        <f t="shared" ref="H3:H6" si="0">SUM(F3,G3)</f>
+        <v>237.43529999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="9">
+        <v>99.356399999999994</v>
+      </c>
+      <c r="C4" s="9">
+        <v>99.468100000000007</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.40749999999999997</v>
+      </c>
+      <c r="F4" s="9">
+        <v>19.491599999999998</v>
+      </c>
+      <c r="G4" s="9">
+        <v>141.66800000000001</v>
+      </c>
+      <c r="H4" s="21">
+        <f t="shared" si="0"/>
+        <v>161.15960000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="9">
+        <v>98.962800000000001</v>
+      </c>
+      <c r="C5" s="9">
+        <v>98.936199999999999</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.50929999999999997</v>
+      </c>
+      <c r="F5" s="9">
+        <v>14.883100000000001</v>
+      </c>
+      <c r="G5" s="9">
+        <v>78.158299999999997</v>
+      </c>
+      <c r="H5" s="21">
+        <f t="shared" si="0"/>
+        <v>93.041399999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="9">
+        <v>88.755300000000005</v>
+      </c>
+      <c r="C6" s="9">
+        <v>88.829800000000006</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1.5270999999999999</v>
+      </c>
+      <c r="F6" s="9">
+        <v>12.107699999999999</v>
+      </c>
+      <c r="G6" s="9">
+        <v>48.2453</v>
+      </c>
+      <c r="H6" s="21">
+        <f t="shared" si="0"/>
+        <v>60.353000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11">
+        <v>98.936199999999999</v>
+      </c>
+      <c r="C8" s="11">
+        <v>97.053200000000004</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0.7772</v>
+      </c>
+      <c r="F8" s="12">
+        <v>31.940899999999999</v>
+      </c>
+      <c r="G8" s="12">
+        <v>30.706900000000001</v>
+      </c>
+      <c r="H8" s="21">
+        <f>SUM(F8,G8)</f>
+        <v>62.647800000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="11">
+        <v>96.960099999999997</v>
+      </c>
+      <c r="C9" s="11">
+        <v>97.0745</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0.81969999999999998</v>
+      </c>
+      <c r="F9" s="12">
+        <v>24.316199999999998</v>
+      </c>
+      <c r="G9" s="12">
+        <v>18.858000000000001</v>
+      </c>
+      <c r="H9" s="21">
+        <f t="shared" ref="H9:H12" si="1">SUM(F9,G9)</f>
+        <v>43.174199999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="11">
+        <v>96.534599999999998</v>
+      </c>
+      <c r="C10" s="11">
+        <v>96.6755</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0.93320000000000003</v>
+      </c>
+      <c r="F10" s="12">
+        <v>19.753599999999999</v>
+      </c>
+      <c r="G10" s="12">
+        <v>9.9242000000000008</v>
+      </c>
+      <c r="H10" s="21">
+        <f t="shared" si="1"/>
+        <v>29.677799999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="11">
+        <v>95.111699999999999</v>
+      </c>
+      <c r="C11" s="11">
+        <v>95.212800000000001</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1.0365</v>
+      </c>
+      <c r="F11" s="12">
+        <v>14.8705</v>
+      </c>
+      <c r="G11" s="12">
+        <v>4.6233000000000004</v>
+      </c>
+      <c r="H11" s="21">
+        <f t="shared" si="1"/>
+        <v>19.4938</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="11">
+        <v>85.401600000000002</v>
+      </c>
+      <c r="C12" s="11">
+        <v>85.372299999999996</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="11">
+        <v>1.5205</v>
+      </c>
+      <c r="F12" s="12">
+        <v>12.1532</v>
+      </c>
+      <c r="G12" s="12">
+        <v>1.2419</v>
+      </c>
+      <c r="H12" s="21">
+        <f t="shared" si="1"/>
+        <v>13.395099999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
-        <v>99574</v>
-      </c>
-      <c r="C2" s="2">
-        <v>99734</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="13">
+        <v>99.233999999999995</v>
+      </c>
+      <c r="C16" s="13">
+        <v>99.202100000000002</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0.40589999999999998</v>
+      </c>
+      <c r="F16" s="14">
+        <v>19.666499999999999</v>
+      </c>
+      <c r="G16" s="14">
+        <v>109.7791</v>
+      </c>
+      <c r="H16" s="21">
+        <f>SUM(F16,G16)</f>
+        <v>129.44560000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="13">
+        <v>98.651600000000002</v>
+      </c>
+      <c r="C17" s="13">
+        <v>98.670199999999994</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="13">
+        <v>0.57110000000000005</v>
+      </c>
+      <c r="F17" s="14">
+        <v>14.875999999999999</v>
+      </c>
+      <c r="G17" s="14">
+        <v>19.4102</v>
+      </c>
+      <c r="H17" s="21">
+        <f t="shared" ref="H17:H24" si="2">SUM(F17,G17)</f>
+        <v>34.286200000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="13">
+        <v>92.970699999999994</v>
+      </c>
+      <c r="C18" s="13">
+        <v>92.819100000000006</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="13">
+        <v>1.0039</v>
+      </c>
+      <c r="F18" s="14">
+        <v>12.119300000000001</v>
+      </c>
+      <c r="G18" s="14">
+        <v>4.1033999999999997</v>
+      </c>
+      <c r="H18" s="21">
+        <f t="shared" si="2"/>
+        <v>16.2227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="20">
+        <v>99.3005</v>
+      </c>
+      <c r="C20" s="15">
+        <v>99.468100000000007</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="15">
+        <v>0.42370000000000002</v>
+      </c>
+      <c r="F20" s="16">
+        <v>31.9864</v>
+      </c>
+      <c r="G20" s="16">
+        <v>220.8802</v>
+      </c>
+      <c r="H20" s="21">
+        <f t="shared" si="2"/>
+        <v>252.86660000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="15">
+        <v>86.375</v>
+      </c>
+      <c r="C21" s="15">
+        <v>86.436199999999999</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="15">
+        <v>2.0426000000000002</v>
+      </c>
+      <c r="F21" s="16">
+        <v>25.034400000000002</v>
+      </c>
+      <c r="G21" s="16">
+        <v>122.3066</v>
+      </c>
+      <c r="H21" s="21">
+        <f t="shared" si="2"/>
+        <v>147.34100000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="15">
+        <v>98.848399999999998</v>
+      </c>
+      <c r="C22" s="15">
+        <v>98.936199999999999</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="15">
+        <v>0.50719999999999998</v>
+      </c>
+      <c r="F22" s="16">
+        <v>18.989000000000001</v>
+      </c>
+      <c r="G22" s="16">
+        <v>42.379300000000001</v>
+      </c>
+      <c r="H22" s="21">
+        <f t="shared" si="2"/>
+        <v>61.368300000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="15">
+        <v>98.513300000000001</v>
+      </c>
+      <c r="C23" s="15">
+        <v>98.537199999999999</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="15">
+        <v>0.61080000000000001</v>
+      </c>
+      <c r="F23" s="16">
+        <v>15.6952</v>
+      </c>
+      <c r="G23" s="16">
+        <v>10.138199999999999</v>
+      </c>
+      <c r="H23" s="21">
+        <f t="shared" si="2"/>
+        <v>25.833399999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="15">
+        <v>85.077100000000002</v>
+      </c>
+      <c r="C24" s="15">
+        <v>85.239400000000003</v>
+      </c>
+      <c r="D24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2">
-        <v>99404</v>
-      </c>
-      <c r="C3" s="2">
-        <v>99468</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2">
-        <v>99354</v>
-      </c>
-      <c r="C4" s="2">
-        <v>99468</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2">
-        <v>99218</v>
-      </c>
-      <c r="C5" s="2">
-        <v>99202</v>
-      </c>
-      <c r="D5" s="2">
-        <v>97606</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2">
-        <v>89649</v>
-      </c>
-      <c r="C6" s="2">
-        <v>98761</v>
-      </c>
-      <c r="D6" s="2">
-        <v>86436</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1370</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="E24" s="15">
+        <v>1.3966000000000001</v>
+      </c>
+      <c r="F24" s="16">
+        <v>12.050700000000001</v>
+      </c>
+      <c r="G24" s="16">
+        <v>1.6781999999999999</v>
+      </c>
+      <c r="H24" s="21">
+        <f t="shared" si="2"/>
+        <v>13.728900000000001</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>